--- a/helper/Country.xlsx
+++ b/helper/Country.xlsx
@@ -64,7 +64,7 @@
     <t>Austria</t>
   </si>
   <si>
-    <t>LINK</t>
+    <t>Click Me</t>
   </si>
   <si>
     <t>Op-Leasing,Fin-Leasing,Purchase,Used-Car</t>
